--- a/数据整理/stocks/A股/深证主板/002648-卫星化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002648-卫星化学.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4415,7 +4416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4426,17 +4427,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4446,13 +4467,3785 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4743</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6329</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5614</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3663</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1537</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8630</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8493</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7952</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7692</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7212</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010707</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3616</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>103</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>38.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002648-卫星化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002648-卫星化学.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8192,7 +8193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8203,17 +8204,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8223,14 +8244,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.69</v>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8239,13 +8282,2699 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6683</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9921</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8946</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8304</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7626</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>103</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>38.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002648-卫星化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002648-卫星化学.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>27.63</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>42.69</v>
+        <v>27.63</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>103</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>38.24</v>
       </c>
     </row>
@@ -532,6 +549,1808 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3176</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富估值优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>53.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3243,7 +5062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7019,7 +8838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002648-卫星化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002648-卫星化学.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>19.11</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>27.63</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>42.69</v>
+        <v>27.63</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>103</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>38.24</v>
       </c>
     </row>
@@ -549,6 +566,1958 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富深化价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7993</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3936</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3936</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7760</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7701</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3255</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国富估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011980</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011981</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015870</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富安达先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>017426</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国富深化价值混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>017451</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国富估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015886</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富安达先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2350,7 +4319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5062,7 +7031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8838,7 +10807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
